--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H2">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I2">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J2">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N2">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O2">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P2">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q2">
-        <v>161.8486219878142</v>
+        <v>690.0688688811903</v>
       </c>
       <c r="R2">
-        <v>1456.637597890328</v>
+        <v>6210.619819930713</v>
       </c>
       <c r="S2">
-        <v>0.01245131326037308</v>
+        <v>0.03738603024764826</v>
       </c>
       <c r="T2">
-        <v>0.01245131326037308</v>
+        <v>0.03738603024764825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H3">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I3">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J3">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P3">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q3">
-        <v>391.8083280024898</v>
+        <v>744.0105700758902</v>
       </c>
       <c r="R3">
-        <v>3526.274952022408</v>
+        <v>6696.095130683012</v>
       </c>
       <c r="S3">
-        <v>0.03014253794727592</v>
+        <v>0.04030844301457148</v>
       </c>
       <c r="T3">
-        <v>0.03014253794727591</v>
+        <v>0.04030844301457147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H4">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I4">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J4">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N4">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O4">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P4">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q4">
-        <v>160.9966518738071</v>
+        <v>359.4174440551677</v>
       </c>
       <c r="R4">
-        <v>1448.969866864264</v>
+        <v>3234.756996496509</v>
       </c>
       <c r="S4">
-        <v>0.01238576962677466</v>
+        <v>0.01947224696103834</v>
       </c>
       <c r="T4">
-        <v>0.01238576962677466</v>
+        <v>0.01947224696103834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H5">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I5">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J5">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N5">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q5">
-        <v>62.71992174863556</v>
+        <v>86.796179416859</v>
       </c>
       <c r="R5">
-        <v>564.47929573772</v>
+        <v>781.165614751731</v>
       </c>
       <c r="S5">
-        <v>0.004825159360437102</v>
+        <v>0.004702377886311639</v>
       </c>
       <c r="T5">
-        <v>0.0048251593604371</v>
+        <v>0.004702377886311638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>168.460147</v>
       </c>
       <c r="I6">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J6">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N6">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O6">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P6">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q6">
-        <v>2061.584038987629</v>
+        <v>4628.913122886747</v>
       </c>
       <c r="R6">
-        <v>18554.25635088866</v>
+        <v>41660.21810598073</v>
       </c>
       <c r="S6">
-        <v>0.1586014657817281</v>
+        <v>0.2507817608212887</v>
       </c>
       <c r="T6">
-        <v>0.158601465781728</v>
+        <v>0.2507817608212887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>168.460147</v>
       </c>
       <c r="I7">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J7">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P7">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q7">
         <v>4990.748672628047</v>
@@ -883,10 +883,10 @@
         <v>44916.73805365243</v>
       </c>
       <c r="S7">
-        <v>0.3839475082547299</v>
+        <v>0.2703850140867707</v>
       </c>
       <c r="T7">
-        <v>0.3839475082547297</v>
+        <v>0.2703850140867706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>168.460147</v>
       </c>
       <c r="I8">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J8">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N8">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O8">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P8">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q8">
-        <v>2050.731873753477</v>
+        <v>2410.936354915935</v>
       </c>
       <c r="R8">
-        <v>18456.58686378129</v>
+        <v>21698.42719424341</v>
       </c>
       <c r="S8">
-        <v>0.1577665886772821</v>
+        <v>0.1306178898291391</v>
       </c>
       <c r="T8">
-        <v>0.157766588677282</v>
+        <v>0.1306178898291391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>168.460147</v>
       </c>
       <c r="I9">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J9">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N9">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q9">
-        <v>798.9094254585339</v>
+        <v>582.2201116977277</v>
       </c>
       <c r="R9">
-        <v>7190.184829126805</v>
+        <v>5239.981005279549</v>
       </c>
       <c r="S9">
-        <v>0.06146157687890503</v>
+        <v>0.03154308169561554</v>
       </c>
       <c r="T9">
-        <v>0.06146157687890501</v>
+        <v>0.03154308169561553</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H10">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I10">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J10">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N10">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O10">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P10">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q10">
-        <v>380.4184007995039</v>
+        <v>1383.054065891813</v>
       </c>
       <c r="R10">
-        <v>3423.765607195535</v>
+        <v>12447.48659302632</v>
       </c>
       <c r="S10">
-        <v>0.02926628982186464</v>
+        <v>0.07493005911916692</v>
       </c>
       <c r="T10">
-        <v>0.02926628982186463</v>
+        <v>0.07493005911916691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H11">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I11">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J11">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>266.631241</v>
       </c>
       <c r="O11">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P11">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q11">
-        <v>920.9290491818761</v>
+        <v>1491.165433499813</v>
       </c>
       <c r="R11">
-        <v>8288.361442636884</v>
+        <v>13420.48890149832</v>
       </c>
       <c r="S11">
-        <v>0.07084877177888123</v>
+        <v>0.08078723518053652</v>
       </c>
       <c r="T11">
-        <v>0.07084877177888119</v>
+        <v>0.0807872351805365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H12">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I12">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J12">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N12">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O12">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P12">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q12">
-        <v>378.4158807636894</v>
+        <v>720.3538367973067</v>
       </c>
       <c r="R12">
-        <v>3405.742926873205</v>
+        <v>6483.18453117576</v>
       </c>
       <c r="S12">
-        <v>0.02911223225887855</v>
+        <v>0.03902678637739031</v>
       </c>
       <c r="T12">
-        <v>0.02911223225887854</v>
+        <v>0.03902678637739031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H13">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I13">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J13">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N13">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q13">
-        <v>147.4205466616972</v>
+        <v>173.95917169976</v>
       </c>
       <c r="R13">
-        <v>1326.784919955275</v>
+        <v>1565.63254529784</v>
       </c>
       <c r="S13">
-        <v>0.0113413347914599</v>
+        <v>0.00942462868317394</v>
       </c>
       <c r="T13">
-        <v>0.0113413347914599</v>
+        <v>0.009424628683173938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H14">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I14">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J14">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N14">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O14">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P14">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q14">
-        <v>102.4313032879461</v>
+        <v>72.03853107329999</v>
       </c>
       <c r="R14">
-        <v>921.8817295915151</v>
+        <v>648.3467796596999</v>
       </c>
       <c r="S14">
-        <v>0.007880229249048085</v>
+        <v>0.003902849154851874</v>
       </c>
       <c r="T14">
-        <v>0.00788022924904808</v>
+        <v>0.003902849154851873</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H15">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I15">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J15">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>266.631241</v>
       </c>
       <c r="O15">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P15">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q15">
-        <v>247.9689798000739</v>
+        <v>77.66968050329999</v>
       </c>
       <c r="R15">
-        <v>2231.720818200665</v>
+        <v>699.0271245296999</v>
       </c>
       <c r="S15">
-        <v>0.01907671136414315</v>
+        <v>0.00420792931773523</v>
       </c>
       <c r="T15">
-        <v>0.01907671136414314</v>
+        <v>0.00420792931773523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H16">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I16">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J16">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N16">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O16">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P16">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q16">
-        <v>101.8921055606606</v>
+        <v>37.5207546369</v>
       </c>
       <c r="R16">
-        <v>917.0289500459451</v>
+        <v>337.6867917321</v>
       </c>
       <c r="S16">
-        <v>0.007838747772534682</v>
+        <v>0.002032771120430365</v>
       </c>
       <c r="T16">
-        <v>0.007838747772534679</v>
+        <v>0.002032771120430365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H17">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I17">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J17">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N17">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O17">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P17">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q17">
-        <v>39.69439620755278</v>
+        <v>9.060935147099999</v>
       </c>
       <c r="R17">
-        <v>357.249565867975</v>
+        <v>81.5484163239</v>
       </c>
       <c r="S17">
-        <v>0.003053763175684111</v>
+        <v>0.0004908965043310525</v>
       </c>
       <c r="T17">
-        <v>0.00305376317568411</v>
+        <v>0.0004908965043310525</v>
       </c>
     </row>
   </sheetData>
